--- a/Administración de Base de datos/Semana 2/Lemonade.xlsx
+++ b/Administración de Base de datos/Semana 2/Lemonade.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semestre 2023\Administración de Base de datos\Semana 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C58D5-0932-4A0F-AA4C-0C7BAEEE04D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67453CD-BE9F-4E5E-AD12-D320951BE51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="lemonade" sheetId="1" r:id="rId1"/>
+    <sheet name="Gráfico1" sheetId="2" r:id="rId1"/>
+    <sheet name="lemonade" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">lemonade!$B$2:$B$366</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">lemonade!$D$2:$D$366</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">lemonade!$B$2:$B$366</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">lemonade!$D$2:$D$366</definedName>
     <definedName name="SegmentaciónDeDatos_Day">#N/A</definedName>
     <definedName name="SegmentaciónDeDatos_Mounth">#N/A</definedName>
   </definedNames>
@@ -26,8 +31,8 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId2"/>
         <x14:slicerCache r:id="rId3"/>
+        <x14:slicerCache r:id="rId4"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -667,20 +672,803 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{A0DDB62F-761C-4B63-9EAB-FF9DB3BEB357}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1BA3AC29-23F1-4796-8E9C-B4B311870CBD}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C7E01EF-3E75-1BF5-7E57-879E45C3091E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectángulo 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E74D096-453F-38A4-D13E-1FFDD3868336}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="8657422" cy="6279614"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="es-MX" sz="1100"/>
+            <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>82038</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>42094</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>557970</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>164301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>67289</xdr:colOff>
-      <xdr:row>376</xdr:row>
-      <xdr:rowOff>147894</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>543221</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>90384</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
@@ -716,8 +1504,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9004986" y="230797"/>
-              <a:ext cx="1818364" cy="3691154"/>
+              <a:off x="9164088" y="164301"/>
+              <a:ext cx="1867839" cy="3511965"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -750,18 +1538,18 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>369017</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:colOff>312988</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>26731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>354269</xdr:colOff>
-      <xdr:row>370</xdr:row>
+      <xdr:colOff>298239</xdr:colOff>
+      <xdr:row>374</xdr:row>
       <xdr:rowOff>21098</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Day">
@@ -784,7 +1572,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -860,12 +1648,11 @@
   <autoFilter ref="A1:K366" xr:uid="{A828C4B8-C331-49B9-B113-9EA16926A1C8}">
     <filterColumn colId="1">
       <filters>
-        <filter val="julio"/>
+        <filter val="marzo"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="Monday"/>
         <filter val="Friday"/>
       </filters>
     </filterColumn>
@@ -884,10 +1671,10 @@
     <tableColumn id="5" xr3:uid="{63B761D3-2ED9-4677-B88E-50C439488E90}" name="Flyers"/>
     <tableColumn id="6" xr3:uid="{06BDC0A2-B248-413D-9F41-8CF3BDBB7C0F}" name="Price"/>
     <tableColumn id="7" xr3:uid="{434A3956-0AE4-404E-BA21-6BDADE698B92}" name="Sales" totalsRowFunction="sum"/>
-    <tableColumn id="8" xr3:uid="{4697F91A-4677-4A07-AEBD-D6A4EB9924C4}" name="Der 1 Total" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Moneda">
+    <tableColumn id="8" xr3:uid="{4697F91A-4677-4A07-AEBD-D6A4EB9924C4}" name="Der 1 Total" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla1[[#This Row],[Price]]*Tabla1[[#This Row],[Sales]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0F020910-9C5A-49C6-B7DD-F4DF9A19062F}" name="Der2 Utilidad" totalsRowFunction="sum" totalsRowDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="9" xr3:uid="{0F020910-9C5A-49C6-B7DD-F4DF9A19062F}" name="Der2 Utilidad" totalsRowFunction="sum" totalsRowDxfId="0" dataCellStyle="Moneda">
       <calculatedColumnFormula>Tabla1[[#This Row],[Der 1 Total]]*0.4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{8A057359-8F4A-435C-8DD4-527A66D8A652}" name="Der3 Gastos" totalsRowFunction="sum" dataCellStyle="Moneda" totalsRowCellStyle="Moneda">
@@ -1197,22 +1984,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView zoomScale="68" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +2034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
@@ -1286,7 +2073,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42737</v>
       </c>
@@ -1325,7 +2112,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42738</v>
       </c>
@@ -1364,7 +2151,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42739</v>
       </c>
@@ -1403,7 +2190,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42740</v>
       </c>
@@ -1442,7 +2229,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42741</v>
       </c>
@@ -1481,7 +2268,7 @@
         <v>1.9799999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>42742</v>
       </c>
@@ -1520,7 +2307,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>42743</v>
       </c>
@@ -1559,7 +2346,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42744</v>
       </c>
@@ -1598,7 +2385,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42745</v>
       </c>
@@ -1637,7 +2424,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42746</v>
       </c>
@@ -1676,7 +2463,7 @@
         <v>2.1599999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42747</v>
       </c>
@@ -1715,7 +2502,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42748</v>
       </c>
@@ -1754,7 +2541,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42749</v>
       </c>
@@ -1793,7 +2580,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42750</v>
       </c>
@@ -1832,7 +2619,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42751</v>
       </c>
@@ -1871,7 +2658,7 @@
         <v>2.1599999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42752</v>
       </c>
@@ -1910,7 +2697,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42753</v>
       </c>
@@ -1949,7 +2736,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42754</v>
       </c>
@@ -1988,7 +2775,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42755</v>
       </c>
@@ -2027,7 +2814,7 @@
         <v>2.1599999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42756</v>
       </c>
@@ -2066,7 +2853,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42757</v>
       </c>
@@ -2105,7 +2892,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42758</v>
       </c>
@@ -2144,7 +2931,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42759</v>
       </c>
@@ -2183,7 +2970,7 @@
         <v>2.1599999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42760</v>
       </c>
@@ -2222,7 +3009,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42761</v>
       </c>
@@ -2261,7 +3048,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42762</v>
       </c>
@@ -2300,7 +3087,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42763</v>
       </c>
@@ -2339,7 +3126,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42764</v>
       </c>
@@ -2378,7 +3165,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42765</v>
       </c>
@@ -2417,7 +3204,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42766</v>
       </c>
@@ -2456,7 +3243,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42767</v>
       </c>
@@ -2495,7 +3282,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42768</v>
       </c>
@@ -2534,7 +3321,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42769</v>
       </c>
@@ -2573,7 +3360,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42770</v>
       </c>
@@ -2612,7 +3399,7 @@
         <v>3.9599999999999995</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42771</v>
       </c>
@@ -2651,7 +3438,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42772</v>
       </c>
@@ -2690,7 +3477,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42773</v>
       </c>
@@ -2729,7 +3516,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42774</v>
       </c>
@@ -2768,7 +3555,7 @@
         <v>3.9599999999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42775</v>
       </c>
@@ -2807,7 +3594,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42776</v>
       </c>
@@ -2846,7 +3633,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42777</v>
       </c>
@@ -2885,7 +3672,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42778</v>
       </c>
@@ -2924,7 +3711,7 @@
         <v>3.9599999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42779</v>
       </c>
@@ -2963,7 +3750,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42780</v>
       </c>
@@ -3002,7 +3789,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42781</v>
       </c>
@@ -3041,7 +3828,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42782</v>
       </c>
@@ -3080,7 +3867,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42783</v>
       </c>
@@ -3119,7 +3906,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42784</v>
       </c>
@@ -3158,7 +3945,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42785</v>
       </c>
@@ -3197,7 +3984,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42786</v>
       </c>
@@ -3236,7 +4023,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42787</v>
       </c>
@@ -3275,7 +4062,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>42788</v>
       </c>
@@ -3314,7 +4101,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42789</v>
       </c>
@@ -3353,7 +4140,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42790</v>
       </c>
@@ -3392,7 +4179,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42791</v>
       </c>
@@ -3431,7 +4218,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42792</v>
       </c>
@@ -3470,7 +4257,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>42793</v>
       </c>
@@ -3509,7 +4296,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42794</v>
       </c>
@@ -3548,7 +4335,7 @@
         <v>3.9599999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42795</v>
       </c>
@@ -3587,7 +4374,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42796</v>
       </c>
@@ -3626,7 +4413,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42797</v>
       </c>
@@ -3665,7 +4452,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42798</v>
       </c>
@@ -3704,7 +4491,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42799</v>
       </c>
@@ -3743,7 +4530,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>42800</v>
       </c>
@@ -3782,7 +4569,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>42801</v>
       </c>
@@ -3821,7 +4608,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>42802</v>
       </c>
@@ -3860,7 +4647,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>42803</v>
       </c>
@@ -3899,7 +4686,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>42804</v>
       </c>
@@ -3938,7 +4725,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>42805</v>
       </c>
@@ -3977,7 +4764,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>42806</v>
       </c>
@@ -4016,7 +4803,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>42807</v>
       </c>
@@ -4055,7 +4842,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>42808</v>
       </c>
@@ -4094,7 +4881,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>42809</v>
       </c>
@@ -4133,7 +4920,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>42810</v>
       </c>
@@ -4172,7 +4959,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>42811</v>
       </c>
@@ -4211,7 +4998,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>42812</v>
       </c>
@@ -4250,7 +5037,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>42813</v>
       </c>
@@ -4289,7 +5076,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>42814</v>
       </c>
@@ -4328,7 +5115,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>42815</v>
       </c>
@@ -4367,7 +5154,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42816</v>
       </c>
@@ -4406,7 +5193,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>42817</v>
       </c>
@@ -4445,7 +5232,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>42818</v>
       </c>
@@ -4484,7 +5271,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42819</v>
       </c>
@@ -4523,7 +5310,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>42820</v>
       </c>
@@ -4562,7 +5349,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>42821</v>
       </c>
@@ -4601,7 +5388,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>42822</v>
       </c>
@@ -4640,7 +5427,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>42823</v>
       </c>
@@ -4679,7 +5466,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>42824</v>
       </c>
@@ -4718,7 +5505,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42825</v>
       </c>
@@ -4757,7 +5544,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42826</v>
       </c>
@@ -4796,7 +5583,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>42827</v>
       </c>
@@ -4835,7 +5622,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42828</v>
       </c>
@@ -4874,7 +5661,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>42829</v>
       </c>
@@ -4913,7 +5700,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>42830</v>
       </c>
@@ -4952,7 +5739,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>42831</v>
       </c>
@@ -4991,7 +5778,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>42832</v>
       </c>
@@ -5030,7 +5817,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>42833</v>
       </c>
@@ -5069,7 +5856,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>42834</v>
       </c>
@@ -5108,7 +5895,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>42835</v>
       </c>
@@ -5147,7 +5934,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>42836</v>
       </c>
@@ -5186,7 +5973,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>42837</v>
       </c>
@@ -5225,7 +6012,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>42838</v>
       </c>
@@ -5264,7 +6051,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>42839</v>
       </c>
@@ -5303,7 +6090,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>42840</v>
       </c>
@@ -5342,7 +6129,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>42841</v>
       </c>
@@ -5381,7 +6168,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>42842</v>
       </c>
@@ -5420,7 +6207,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>42843</v>
       </c>
@@ -5459,7 +6246,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>42844</v>
       </c>
@@ -5498,7 +6285,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>42845</v>
       </c>
@@ -5537,7 +6324,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>42846</v>
       </c>
@@ -5576,7 +6363,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>42847</v>
       </c>
@@ -5615,7 +6402,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>42848</v>
       </c>
@@ -5654,7 +6441,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>42849</v>
       </c>
@@ -5693,7 +6480,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>42850</v>
       </c>
@@ -5732,7 +6519,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>42851</v>
       </c>
@@ -5771,7 +6558,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>42852</v>
       </c>
@@ -5810,7 +6597,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>42853</v>
       </c>
@@ -5849,7 +6636,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42854</v>
       </c>
@@ -5888,7 +6675,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42855</v>
       </c>
@@ -5927,7 +6714,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>42856</v>
       </c>
@@ -5966,7 +6753,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>42857</v>
       </c>
@@ -6005,7 +6792,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>42858</v>
       </c>
@@ -6044,7 +6831,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>42859</v>
       </c>
@@ -6083,7 +6870,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>42860</v>
       </c>
@@ -6122,7 +6909,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>42861</v>
       </c>
@@ -6161,7 +6948,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>42862</v>
       </c>
@@ -6200,7 +6987,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>42863</v>
       </c>
@@ -6239,7 +7026,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>42864</v>
       </c>
@@ -6278,7 +7065,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>42865</v>
       </c>
@@ -6317,7 +7104,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>42866</v>
       </c>
@@ -6356,7 +7143,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>42867</v>
       </c>
@@ -6395,7 +7182,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>42868</v>
       </c>
@@ -6434,7 +7221,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>42869</v>
       </c>
@@ -6473,7 +7260,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>42870</v>
       </c>
@@ -6512,7 +7299,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>42871</v>
       </c>
@@ -6551,7 +7338,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>42872</v>
       </c>
@@ -6590,7 +7377,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>42873</v>
       </c>
@@ -6629,7 +7416,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>42874</v>
       </c>
@@ -6668,7 +7455,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>42875</v>
       </c>
@@ -6707,7 +7494,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>42876</v>
       </c>
@@ -6746,7 +7533,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>42877</v>
       </c>
@@ -6785,7 +7572,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>42878</v>
       </c>
@@ -6824,7 +7611,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>42879</v>
       </c>
@@ -6863,7 +7650,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>42880</v>
       </c>
@@ -6902,7 +7689,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>42881</v>
       </c>
@@ -6941,7 +7728,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>42882</v>
       </c>
@@ -6980,7 +7767,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>42883</v>
       </c>
@@ -7019,7 +7806,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>42884</v>
       </c>
@@ -7058,7 +7845,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>42885</v>
       </c>
@@ -7097,7 +7884,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>42886</v>
       </c>
@@ -7136,7 +7923,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>42887</v>
       </c>
@@ -7175,7 +7962,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>42888</v>
       </c>
@@ -7214,7 +8001,7 @@
         <v>5.9399999999999995</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>42889</v>
       </c>
@@ -7253,7 +8040,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>42890</v>
       </c>
@@ -7292,7 +8079,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>42891</v>
       </c>
@@ -7331,7 +8118,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>42892</v>
       </c>
@@ -7370,7 +8157,7 @@
         <v>6.1199999999999992</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>42893</v>
       </c>
@@ -7409,7 +8196,7 @@
         <v>6.4799999999999995</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>42894</v>
       </c>
@@ -7448,7 +8235,7 @@
         <v>7.02</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>42895</v>
       </c>
@@ -7487,7 +8274,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>42896</v>
       </c>
@@ -7526,7 +8313,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>42897</v>
       </c>
@@ -7565,7 +8352,7 @@
         <v>6.4799999999999995</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>42898</v>
       </c>
@@ -7604,7 +8391,7 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>42899</v>
       </c>
@@ -7643,7 +8430,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>42900</v>
       </c>
@@ -7682,7 +8469,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>42901</v>
       </c>
@@ -7721,7 +8508,7 @@
         <v>6.4799999999999995</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>42902</v>
       </c>
@@ -7760,7 +8547,7 @@
         <v>7.379999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>42903</v>
       </c>
@@ -7799,7 +8586,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>42904</v>
       </c>
@@ -7838,7 +8625,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>42905</v>
       </c>
@@ -7877,7 +8664,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>42906</v>
       </c>
@@ -7916,7 +8703,7 @@
         <v>6.6599999999999993</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>42907</v>
       </c>
@@ -7955,7 +8742,7 @@
         <v>7.379999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>42908</v>
       </c>
@@ -7994,7 +8781,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>42909</v>
       </c>
@@ -8033,7 +8820,7 @@
         <v>5.9399999999999995</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>42910</v>
       </c>
@@ -8072,7 +8859,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>42911</v>
       </c>
@@ -8111,7 +8898,7 @@
         <v>6.6599999999999993</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>42912</v>
       </c>
@@ -8150,7 +8937,7 @@
         <v>7.56</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>42913</v>
       </c>
@@ -8189,7 +8976,7 @@
         <v>5.5799999999999992</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>42914</v>
       </c>
@@ -8228,7 +9015,7 @@
         <v>5.9399999999999995</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>42915</v>
       </c>
@@ -8267,7 +9054,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>42916</v>
       </c>
@@ -8306,7 +9093,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>42917</v>
       </c>
@@ -8345,7 +9132,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>42918</v>
       </c>
@@ -8384,7 +9171,7 @@
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>42919</v>
       </c>
@@ -8423,7 +9210,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>42920</v>
       </c>
@@ -8462,7 +9249,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>42921</v>
       </c>
@@ -8501,7 +9288,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>42922</v>
       </c>
@@ -8540,7 +9327,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>42923</v>
       </c>
@@ -8579,7 +9366,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>42924</v>
       </c>
@@ -8618,7 +9405,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>42925</v>
       </c>
@@ -8657,7 +9444,7 @@
         <v>9.8999999999999986</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>42926</v>
       </c>
@@ -8696,7 +9483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>42927</v>
       </c>
@@ -8735,7 +9522,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>42928</v>
       </c>
@@ -8774,7 +9561,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>42929</v>
       </c>
@@ -8813,7 +9600,7 @@
         <v>9.8999999999999986</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>42930</v>
       </c>
@@ -8852,7 +9639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>42931</v>
       </c>
@@ -8891,7 +9678,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>42932</v>
       </c>
@@ -8930,7 +9717,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>42933</v>
       </c>
@@ -8969,7 +9756,7 @@
         <v>9.8999999999999986</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>42934</v>
       </c>
@@ -9008,7 +9795,7 @@
         <v>12.299999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>42935</v>
       </c>
@@ -9047,7 +9834,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>42936</v>
       </c>
@@ -9086,7 +9873,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>42937</v>
       </c>
@@ -9125,7 +9912,7 @@
         <v>9.8999999999999986</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>42938</v>
       </c>
@@ -9164,7 +9951,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>42939</v>
       </c>
@@ -9203,7 +9990,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>42940</v>
       </c>
@@ -9242,7 +10029,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>42941</v>
       </c>
@@ -9281,7 +10068,7 @@
         <v>9.8999999999999986</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>42942</v>
       </c>
@@ -9320,7 +10107,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>42943</v>
       </c>
@@ -9359,7 +10146,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>42944</v>
       </c>
@@ -9398,7 +10185,7 @@
         <v>11.399999999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>42945</v>
       </c>
@@ -9437,7 +10224,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>42946</v>
       </c>
@@ -9476,7 +10263,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>42947</v>
       </c>
@@ -9515,7 +10302,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>42948</v>
       </c>
@@ -9554,7 +10341,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>42949</v>
       </c>
@@ -9593,7 +10380,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>42950</v>
       </c>
@@ -9632,7 +10419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>42951</v>
       </c>
@@ -9671,7 +10458,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>42952</v>
       </c>
@@ -9710,7 +10497,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>42953</v>
       </c>
@@ -9749,7 +10536,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>42954</v>
       </c>
@@ -9788,7 +10575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>42955</v>
       </c>
@@ -9827,7 +10614,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>42956</v>
       </c>
@@ -9866,7 +10653,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>42957</v>
       </c>
@@ -9905,7 +10692,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>42958</v>
       </c>
@@ -9944,7 +10731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>42959</v>
       </c>
@@ -9983,7 +10770,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>42960</v>
       </c>
@@ -10022,7 +10809,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>42961</v>
       </c>
@@ -10061,7 +10848,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>42962</v>
       </c>
@@ -10100,7 +10887,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>42963</v>
       </c>
@@ -10139,7 +10926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>42964</v>
       </c>
@@ -10178,7 +10965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>42965</v>
       </c>
@@ -10217,7 +11004,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>42966</v>
       </c>
@@ -10256,7 +11043,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>42967</v>
       </c>
@@ -10295,7 +11082,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>42968</v>
       </c>
@@ -10334,7 +11121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>42969</v>
       </c>
@@ -10373,7 +11160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>42970</v>
       </c>
@@ -10412,7 +11199,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>42971</v>
       </c>
@@ -10451,7 +11238,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>42972</v>
       </c>
@@ -10490,7 +11277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>42973</v>
       </c>
@@ -10529,7 +11316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>42974</v>
       </c>
@@ -10568,7 +11355,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>42975</v>
       </c>
@@ -10607,7 +11394,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>42976</v>
       </c>
@@ -10646,7 +11433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>42977</v>
       </c>
@@ -10685,7 +11472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>42978</v>
       </c>
@@ -10724,7 +11511,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>42979</v>
       </c>
@@ -10763,7 +11550,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>42980</v>
       </c>
@@ -10802,7 +11589,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>42981</v>
       </c>
@@ -10841,7 +11628,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>42982</v>
       </c>
@@ -10880,7 +11667,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>42983</v>
       </c>
@@ -10919,7 +11706,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>42984</v>
       </c>
@@ -10958,7 +11745,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>42985</v>
       </c>
@@ -10997,7 +11784,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>42986</v>
       </c>
@@ -11036,7 +11823,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>42987</v>
       </c>
@@ -11075,7 +11862,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>42988</v>
       </c>
@@ -11114,7 +11901,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>42989</v>
       </c>
@@ -11153,7 +11940,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>42990</v>
       </c>
@@ -11192,7 +11979,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>42991</v>
       </c>
@@ -11231,7 +12018,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>42992</v>
       </c>
@@ -11270,7 +12057,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>42993</v>
       </c>
@@ -11309,7 +12096,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>42994</v>
       </c>
@@ -11348,7 +12135,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>42995</v>
       </c>
@@ -11387,7 +12174,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>42996</v>
       </c>
@@ -11426,7 +12213,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>42997</v>
       </c>
@@ -11465,7 +12252,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>42998</v>
       </c>
@@ -11504,7 +12291,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>42999</v>
       </c>
@@ -11543,7 +12330,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>43000</v>
       </c>
@@ -11582,7 +12369,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>43001</v>
       </c>
@@ -11621,7 +12408,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>43002</v>
       </c>
@@ -11660,7 +12447,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>43003</v>
       </c>
@@ -11699,7 +12486,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>43004</v>
       </c>
@@ -11738,7 +12525,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>43005</v>
       </c>
@@ -11777,7 +12564,7 @@
         <v>5.2199999999999989</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>43006</v>
       </c>
@@ -11816,7 +12603,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>43007</v>
       </c>
@@ -11855,7 +12642,7 @@
         <v>4.8599999999999994</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>43008</v>
       </c>
@@ -11894,7 +12681,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>43009</v>
       </c>
@@ -11933,7 +12720,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>43010</v>
       </c>
@@ -11972,7 +12759,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>43011</v>
       </c>
@@ -12011,7 +12798,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>43012</v>
       </c>
@@ -12050,7 +12837,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>43013</v>
       </c>
@@ -12089,7 +12876,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>43014</v>
       </c>
@@ -12128,7 +12915,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>43015</v>
       </c>
@@ -12167,7 +12954,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>43016</v>
       </c>
@@ -12206,7 +12993,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>43017</v>
       </c>
@@ -12245,7 +13032,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>43018</v>
       </c>
@@ -12284,7 +13071,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>43019</v>
       </c>
@@ -12323,7 +13110,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>43020</v>
       </c>
@@ -12362,7 +13149,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>43021</v>
       </c>
@@ -12401,7 +13188,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>43022</v>
       </c>
@@ -12440,7 +13227,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>43023</v>
       </c>
@@ -12479,7 +13266,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>43024</v>
       </c>
@@ -12518,7 +13305,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>43025</v>
       </c>
@@ -12557,7 +13344,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>43026</v>
       </c>
@@ -12596,7 +13383,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>43027</v>
       </c>
@@ -12635,7 +13422,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>43028</v>
       </c>
@@ -12674,7 +13461,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>43029</v>
       </c>
@@ -12713,7 +13500,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>43030</v>
       </c>
@@ -12752,7 +13539,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>43031</v>
       </c>
@@ -12791,7 +13578,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>43032</v>
       </c>
@@ -12830,7 +13617,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>43033</v>
       </c>
@@ -12869,7 +13656,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>43034</v>
       </c>
@@ -12908,7 +13695,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>43035</v>
       </c>
@@ -12947,7 +13734,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>43036</v>
       </c>
@@ -12986,7 +13773,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>43037</v>
       </c>
@@ -13025,7 +13812,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>43038</v>
       </c>
@@ -13064,7 +13851,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>43039</v>
       </c>
@@ -13103,7 +13890,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>43040</v>
       </c>
@@ -13142,7 +13929,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>43041</v>
       </c>
@@ -13181,7 +13968,7 @@
         <v>3.9599999999999995</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>43042</v>
       </c>
@@ -13220,7 +14007,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>43043</v>
       </c>
@@ -13259,7 +14046,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>43044</v>
       </c>
@@ -13298,7 +14085,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>43045</v>
       </c>
@@ -13337,7 +14124,7 @@
         <v>3.9599999999999995</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>43046</v>
       </c>
@@ -13376,7 +14163,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>43047</v>
       </c>
@@ -13415,7 +14202,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>43048</v>
       </c>
@@ -13454,7 +14241,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>43049</v>
       </c>
@@ -13493,7 +14280,7 @@
         <v>3.9599999999999995</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>43050</v>
       </c>
@@ -13532,7 +14319,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>43051</v>
       </c>
@@ -13571,7 +14358,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>43052</v>
       </c>
@@ -13610,7 +14397,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>43053</v>
       </c>
@@ -13649,7 +14436,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>43054</v>
       </c>
@@ -13688,7 +14475,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>43055</v>
       </c>
@@ -13727,7 +14514,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>43056</v>
       </c>
@@ -13766,7 +14553,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>43057</v>
       </c>
@@ -13805,7 +14592,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>43058</v>
       </c>
@@ -13844,7 +14631,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>43059</v>
       </c>
@@ -13883,7 +14670,7 @@
         <v>3.9599999999999995</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>43060</v>
       </c>
@@ -13922,7 +14709,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>43061</v>
       </c>
@@ -13961,7 +14748,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>43062</v>
       </c>
@@ -14000,7 +14787,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>43063</v>
       </c>
@@ -14039,7 +14826,7 @@
         <v>3.9599999999999995</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>43064</v>
       </c>
@@ -14078,7 +14865,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>43065</v>
       </c>
@@ -14117,7 +14904,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>43066</v>
       </c>
@@ -14156,7 +14943,7 @@
         <v>4.1399999999999997</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>43067</v>
       </c>
@@ -14195,7 +14982,7 @@
         <v>3.9599999999999995</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>43068</v>
       </c>
@@ -14234,7 +15021,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>43069</v>
       </c>
@@ -14273,7 +15060,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>43070</v>
       </c>
@@ -14312,7 +15099,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>43071</v>
       </c>
@@ -14351,7 +15138,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>43072</v>
       </c>
@@ -14390,7 +15177,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>43073</v>
       </c>
@@ -14429,7 +15216,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>43074</v>
       </c>
@@ -14468,7 +15255,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>43075</v>
       </c>
@@ -14507,7 +15294,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>43076</v>
       </c>
@@ -14546,7 +15333,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>43077</v>
       </c>
@@ -14585,7 +15372,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>43078</v>
       </c>
@@ -14624,7 +15411,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>43079</v>
       </c>
@@ -14663,7 +15450,7 @@
         <v>1.9799999999999998</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>43080</v>
       </c>
@@ -14702,7 +15489,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>43081</v>
       </c>
@@ -14741,7 +15528,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>43082</v>
       </c>
@@ -14780,7 +15567,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>43083</v>
       </c>
@@ -14819,7 +15606,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>43084</v>
       </c>
@@ -14858,7 +15645,7 @@
         <v>3.0599999999999996</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>43085</v>
       </c>
@@ -14897,7 +15684,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>43086</v>
       </c>
@@ -14936,7 +15723,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>43087</v>
       </c>
@@ -14975,7 +15762,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>43088</v>
       </c>
@@ -15014,7 +15801,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>43089</v>
       </c>
@@ -15053,7 +15840,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>43090</v>
       </c>
@@ -15092,7 +15879,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>43091</v>
       </c>
@@ -15131,7 +15918,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>43092</v>
       </c>
@@ -15170,7 +15957,7 @@
         <v>3.2399999999999998</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>43093</v>
       </c>
@@ -15209,7 +15996,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>43094</v>
       </c>
@@ -15248,7 +16035,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>43095</v>
       </c>
@@ -15287,7 +16074,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>43096</v>
       </c>
@@ -15326,7 +16113,7 @@
         <v>3.42</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>43097</v>
       </c>
@@ -15365,7 +16152,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>43098</v>
       </c>
@@ -15404,7 +16191,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>43099</v>
       </c>
@@ -15443,7 +16230,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>43100</v>
       </c>
@@ -15482,25 +16269,25 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>18</v>
       </c>
       <c r="H367">
         <f>SUBTOTAL(109,Tabla1[Sales])</f>
-        <v>321</v>
+        <v>121</v>
       </c>
       <c r="I367" s="3">
         <f>SUBTOTAL(109,Tabla1[Der 1 Total])</f>
-        <v>160.5</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J367" s="3">
         <f>SUBTOTAL(109,Tabla1[Der2 Utilidad])</f>
-        <v>64.2</v>
+        <v>14.52</v>
       </c>
       <c r="K367" s="3">
         <f>SUBTOTAL(109,Tabla1[Der3 Gastos])</f>
-        <v>96.299999999999983</v>
+        <v>21.779999999999998</v>
       </c>
     </row>
   </sheetData>
